--- a/medicine/Mort/Cimetière_juif_de_Rosenwiller/Cimetière_juif_de_Rosenwiller.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Rosenwiller/Cimetière_juif_de_Rosenwiller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Rosenwiller</t>
+          <t>Cimetière_juif_de_Rosenwiller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière juif de Rosenwiller est une nécropole située route de Grendelbruch à Rosenwiller, dans le département français du Bas-Rhin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Rosenwiller</t>
+          <t>Cimetière_juif_de_Rosenwiller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première mention d'un cimetière juif à Rosenwiller date de 1366, mais la stèle la plus ancienne remonte à 1657. C’est la plus ancienne et plus grande nécropole juive d’Alsace.
 Dans ce cimetière sont inhumés, entre autres, l’ensemble des rabbins des possessions de l’Évêché de Strasbourg siégeant à Mutzig, représentant une vingtaine de communautés juives des alentours. On y peut y voir aussi la tombe de Cerf Beer mort en 1793 (section II, rangée 16, 6e tombe en partant du début de la rangée).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Rosenwiller</t>
+          <t>Cimetière_juif_de_Rosenwiller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière juif est mentionné dès 1366, mais c'est en 1621 seulement, qu'il est fait mention, pour la première fois, du cimetière et de l'inhumation de Juifs à Rosenwiller[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière juif est mentionné dès 1366, mais c'est en 1621 seulement, qu'il est fait mention, pour la première fois, du cimetière et de l'inhumation de Juifs à Rosenwiller.
 La stèle la plus ancienne remonte à 1657.
-Ce cimetière a fait l'objet d'une inscription sur l'inventaire supplémentaire des monuments historiques depuis 1995[2].
+Ce cimetière a fait l'objet d'une inscription sur l'inventaire supplémentaire des monuments historiques depuis 1995.
 </t>
         </is>
       </c>
